--- a/data/01_DADA2/ASV_taxonomy.xlsx
+++ b/data/01_DADA2/ASV_taxonomy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cab565/Documents/Angert/data/01_DADA2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98204E86-E40A-7844-BF3D-512237867194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA7F126-95C8-8E49-AD46-EBB63FF316B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="500" windowWidth="27640" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12511,11 +12511,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1765"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
